--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2611.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2611.xlsx
@@ -354,7 +354,7 @@
         <v>1.5658807061188</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.807443787844788</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2611.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2611.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7894857880310695</v>
+        <v>1.304365634918213</v>
       </c>
       <c r="B1">
-        <v>1.5658807061188</v>
+        <v>2.085749626159668</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.71490478515625</v>
       </c>
       <c r="D1">
-        <v>1.807443787844788</v>
+        <v>3.469613313674927</v>
       </c>
       <c r="E1">
-        <v>0.9213181898976738</v>
+        <v>1.356612682342529</v>
       </c>
     </row>
   </sheetData>
